--- a/xlsx/四角落州_intext.xlsx
+++ b/xlsx/四角落州_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>科羅拉多高原</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_四角落州</t>
+    <t>科罗拉多高原</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_四角落州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E8%A7%92%E8%90%BD%E5%B7%9E%E7%BA%AA%E5%BF%B5%E5%A4%84</t>
